--- a/pokemones.xlsx
+++ b/pokemones.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pokemones" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen_Visual" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +592,115 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>raichu</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>electric</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>static, lightning-rod</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>venusaur</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>grass, poison</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>overgrow, chlorophyll</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>N° Tipos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>N° Habilidades</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pikachu</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>charizard</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>charmander</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
